--- a/biology/Histoire de la zoologie et de la botanique/William_Plane_Pycraft/William_Plane_Pycraft.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Plane_Pycraft/William_Plane_Pycraft.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Plane Pycraft est un zoologiste britannique, né le 13 janvier 1868 à Great Yarmouth et mort le 1er mai 1942.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il devient, en 1892, l’assistant de Sir Edwin Ray Lankester (1847-1929) qu’il suit, en 1898, au Muséum d'histoire naturelle de Londres. En 1907, Pycraft prend en charge l’ostéologie du muséum.
 Pycraft écrit de nombreux articles et livres sur l’histoire naturelle, notamment The Story of Bird-Life (1900), The Story of Fish-Life (1901), The Story of Reptile Life (1905), The British Museum of Natural History (1910), A History of Birds (1910), The Infancy of Animals (1912), The Courtship of Animals (1913), Birds in Flight (1922), Camouflage in Nature (1925) et Birds of Great Britain and their Natural History (1934).
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 15 juin 2006).</t>
         </is>
